--- a/doc/选学校.xlsx
+++ b/doc/选学校.xlsx
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2470" uniqueCount="1140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2482" uniqueCount="1140">
   <si>
     <t>济南幼儿师范高等专科学校</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4102,13 +4102,13 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -13728,10 +13728,10 @@
   <dimension ref="A1:U66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A62" sqref="A62"/>
+      <selection pane="bottomRight" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -13759,57 +13759,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>855</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>1041</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="18" t="s">
         <v>1042</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="18" t="s">
         <v>1087</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="18" t="s">
         <v>1088</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="17" t="s">
         <v>854</v>
       </c>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16" t="s">
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17" t="s">
         <v>856</v>
       </c>
-      <c r="K1" s="16"/>
+      <c r="K1" s="17"/>
       <c r="L1" s="11"/>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="17" t="s">
         <v>859</v>
       </c>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16" t="s">
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17" t="s">
         <v>908</v>
       </c>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16" t="s">
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17" t="s">
         <v>909</v>
       </c>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
     </row>
     <row r="2" spans="1:21">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
       <c r="G2" t="s">
         <v>844</v>
       </c>
@@ -13984,7 +13984,7 @@
       </c>
     </row>
     <row r="7" spans="1:21">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="16" t="s">
         <v>850</v>
       </c>
       <c r="B7" t="s">
@@ -14049,7 +14049,7 @@
       </c>
     </row>
     <row r="8" spans="1:21">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="16" t="s">
         <v>851</v>
       </c>
       <c r="B8" t="s">
@@ -14179,7 +14179,7 @@
       </c>
     </row>
     <row r="10" spans="1:21">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="16" t="s">
         <v>853</v>
       </c>
       <c r="B10" t="s">
@@ -14683,7 +14683,7 @@
       </c>
     </row>
     <row r="20" spans="1:21">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="16" t="s">
         <v>867</v>
       </c>
       <c r="B20" t="s">
@@ -14895,7 +14895,7 @@
       </c>
     </row>
     <row r="24" spans="1:21">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="16" t="s">
         <v>871</v>
       </c>
       <c r="B24" t="s">
@@ -15007,7 +15007,7 @@
       </c>
     </row>
     <row r="26" spans="1:21">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="16" t="s">
         <v>1077</v>
       </c>
       <c r="B26" t="s">
@@ -15069,7 +15069,7 @@
       </c>
     </row>
     <row r="27" spans="1:21">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="16" t="s">
         <v>873</v>
       </c>
       <c r="B27" t="s">
@@ -15199,7 +15199,7 @@
       </c>
     </row>
     <row r="29" spans="1:21">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="16" t="s">
         <v>875</v>
       </c>
       <c r="B29" t="s">
@@ -15212,7 +15212,7 @@
         <v>1084</v>
       </c>
       <c r="E29" t="s">
-        <v>1101</v>
+        <v>1107</v>
       </c>
       <c r="F29" t="s">
         <v>1130</v>
@@ -15255,7 +15255,7 @@
       </c>
     </row>
     <row r="30" spans="1:21">
-      <c r="A30" s="18" t="s">
+      <c r="A30" s="16" t="s">
         <v>876</v>
       </c>
       <c r="B30" t="s">
@@ -15268,7 +15268,7 @@
         <v>1085</v>
       </c>
       <c r="E30" t="s">
-        <v>1101</v>
+        <v>1107</v>
       </c>
       <c r="F30" t="s">
         <v>1131</v>
@@ -15304,7 +15304,7 @@
       </c>
     </row>
     <row r="32" spans="1:21">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="16" t="s">
         <v>878</v>
       </c>
       <c r="B32" t="s">
@@ -15391,7 +15391,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" hidden="1">
       <c r="A34" t="s">
         <v>880</v>
       </c>
@@ -15414,10 +15414,13 @@
         <v>265</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" hidden="1">
       <c r="A35" t="s">
         <v>881</v>
       </c>
+      <c r="E35" t="s">
+        <v>161</v>
+      </c>
       <c r="G35">
         <v>18</v>
       </c>
@@ -15428,10 +15431,13 @@
         <v>264</v>
       </c>
     </row>
-    <row r="36" spans="1:21">
+    <row r="36" spans="1:21" hidden="1">
       <c r="A36" t="s">
         <v>882</v>
       </c>
+      <c r="E36" t="s">
+        <v>161</v>
+      </c>
       <c r="G36">
         <v>12</v>
       </c>
@@ -15442,10 +15448,13 @@
         <v>254</v>
       </c>
     </row>
-    <row r="37" spans="1:21">
+    <row r="37" spans="1:21" hidden="1">
       <c r="A37" t="s">
         <v>883</v>
       </c>
+      <c r="E37" t="s">
+        <v>161</v>
+      </c>
       <c r="G37">
         <v>20</v>
       </c>
@@ -15456,10 +15465,13 @@
         <v>243</v>
       </c>
     </row>
-    <row r="38" spans="1:21">
+    <row r="38" spans="1:21" hidden="1">
       <c r="A38" t="s">
         <v>884</v>
       </c>
+      <c r="E38" t="s">
+        <v>161</v>
+      </c>
       <c r="G38">
         <v>25</v>
       </c>
@@ -15470,10 +15482,13 @@
         <v>226</v>
       </c>
     </row>
-    <row r="39" spans="1:21">
+    <row r="39" spans="1:21" hidden="1">
       <c r="A39" t="s">
         <v>885</v>
       </c>
+      <c r="E39" t="s">
+        <v>161</v>
+      </c>
       <c r="G39">
         <v>17</v>
       </c>
@@ -15484,10 +15499,13 @@
         <v>212</v>
       </c>
     </row>
-    <row r="40" spans="1:21">
+    <row r="40" spans="1:21" hidden="1">
       <c r="A40" t="s">
         <v>886</v>
       </c>
+      <c r="E40" t="s">
+        <v>161</v>
+      </c>
       <c r="G40">
         <v>25</v>
       </c>
@@ -15516,11 +15534,14 @@
         <v>993</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="9" customHeight="1"/>
-    <row r="42" spans="1:21">
+    <row r="41" spans="1:21" ht="9" hidden="1" customHeight="1"/>
+    <row r="42" spans="1:21" hidden="1">
       <c r="A42" t="s">
         <v>889</v>
       </c>
+      <c r="E42" t="s">
+        <v>161</v>
+      </c>
       <c r="G42">
         <v>18</v>
       </c>
@@ -15549,10 +15570,13 @@
         <v>996</v>
       </c>
     </row>
-    <row r="43" spans="1:21">
+    <row r="43" spans="1:21" hidden="1">
       <c r="A43" t="s">
         <v>887</v>
       </c>
+      <c r="E43" t="s">
+        <v>161</v>
+      </c>
       <c r="G43">
         <v>1</v>
       </c>
@@ -15590,10 +15614,13 @@
         <v>999</v>
       </c>
     </row>
-    <row r="44" spans="1:21">
+    <row r="44" spans="1:21" hidden="1">
       <c r="A44" t="s">
         <v>888</v>
       </c>
+      <c r="E44" t="s">
+        <v>161</v>
+      </c>
       <c r="G44">
         <v>19</v>
       </c>
@@ -15631,7 +15658,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="45" spans="1:21">
+    <row r="45" spans="1:21" hidden="1">
       <c r="A45" t="s">
         <v>890</v>
       </c>
@@ -15644,6 +15671,9 @@
       <c r="D45" t="s">
         <v>1099</v>
       </c>
+      <c r="E45" t="s">
+        <v>161</v>
+      </c>
       <c r="G45">
         <v>2</v>
       </c>
@@ -15681,7 +15711,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="46" spans="1:21">
+    <row r="46" spans="1:21" hidden="1">
       <c r="A46" t="s">
         <v>891</v>
       </c>
@@ -15693,6 +15723,9 @@
       </c>
       <c r="D46" t="s">
         <v>1097</v>
+      </c>
+      <c r="E46" t="s">
+        <v>161</v>
       </c>
       <c r="G46">
         <v>5</v>
@@ -15744,6 +15777,9 @@
       <c r="A47" t="s">
         <v>892</v>
       </c>
+      <c r="E47" t="s">
+        <v>161</v>
+      </c>
       <c r="G47">
         <v>26</v>
       </c>
@@ -15764,7 +15800,7 @@
       </c>
     </row>
     <row r="48" spans="1:21">
-      <c r="A48" s="18" t="s">
+      <c r="A48" s="16" t="s">
         <v>893</v>
       </c>
       <c r="B48" t="s">
@@ -15914,7 +15950,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="53" spans="1:21">
+    <row r="53" spans="1:21" hidden="1">
       <c r="A53" t="s">
         <v>898</v>
       </c>
@@ -15928,7 +15964,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="54" spans="1:21">
+    <row r="54" spans="1:21" hidden="1">
       <c r="A54" t="s">
         <v>899</v>
       </c>
@@ -15978,7 +16014,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="55" spans="1:21">
+    <row r="55" spans="1:21" hidden="1">
       <c r="A55" t="s">
         <v>900</v>
       </c>
@@ -16028,7 +16064,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="56" spans="1:21">
+    <row r="56" spans="1:21" hidden="1">
       <c r="A56" t="s">
         <v>901</v>
       </c>
@@ -16078,7 +16114,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="57" spans="1:21">
+    <row r="57" spans="1:21" hidden="1">
       <c r="A57" t="s">
         <v>902</v>
       </c>
@@ -16128,7 +16164,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="58" spans="1:21">
+    <row r="58" spans="1:21" hidden="1">
       <c r="A58" t="s">
         <v>903</v>
       </c>
@@ -16178,7 +16214,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="59" spans="1:21">
+    <row r="59" spans="1:21" hidden="1">
       <c r="A59" t="s">
         <v>904</v>
       </c>
@@ -16211,7 +16247,7 @@
       </c>
     </row>
     <row r="62" spans="1:21">
-      <c r="A62" s="18" t="s">
+      <c r="A62" s="16" t="s">
         <v>1133</v>
       </c>
       <c r="B62" t="s">
@@ -16257,6 +16293,10 @@
     <filterColumn colId="19" showButton="0"/>
   </autoFilter>
   <mergeCells count="11">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
     <mergeCell ref="S1:U1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
@@ -16264,10 +16304,6 @@
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:I1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="P1:R1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
